--- a/Input/Danh_sach_nha_cung_cap.xlsx
+++ b/Input/Danh_sach_nha_cung_cap.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UiPath\Project path\Amber_MuaHang_Vlookup\Input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1A4D64-282F-495D-B81D-DB161815471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh sách nhà cung cấp" sheetId="1" r:id="rId1"/>
+    <sheet name="Danh sách nhà cung cấp" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
   <si>
     <t>STT</t>
   </si>
@@ -557,6 +552,12 @@
   </si>
   <si>
     <t>Tầng 1, Số B2-26, Khu chức năng đô thị Thành phố Xanh, Phường Cầu Diễn, Quận Nam Từ Liêm, Thành phố Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>0109126547</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM&amp;DV AN PHÚ GROUP</t>
   </si>
   <si>
     <t>0109129509</t>
@@ -724,15 +725,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0_);\(#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0_);(#,##0)"/>
+    <numFmt numFmtId="178" formatCode="@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -791,70 +799,164 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1154,66 +1256,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC324DBF-E2B8-46CF-B32D-0C0F31B4882A}">
-  <dimension ref="A1:G82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1e4365d8-37f2-4162-9ba2-a36c817f13bf}">
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="36.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22" style="6" customWidth="1"/>
-    <col min="6" max="7" width="22" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="36.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="3" customWidth="1"/>
+    <col min="6" max="7" width="22" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="28.25" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="12.75">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1236,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1259,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1282,7 +1382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1305,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1328,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1351,7 +1451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1374,7 +1474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1397,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1420,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1443,7 +1543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1466,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -1489,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -1512,7 +1612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="12.75">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -1535,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="12.75">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -1558,7 +1658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="12.75">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -1581,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.75">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -1604,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="12.75">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -1627,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.75">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -1650,7 +1750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.75">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -1673,7 +1773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.75">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -1696,7 +1796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.75">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -1719,7 +1819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="12.75">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -1742,7 +1842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.75">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -1765,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.75">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -1788,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.75">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -1811,7 +1911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.75">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -1834,7 +1934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="12.75">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -1857,7 +1957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="12.75">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -1880,7 +1980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="12.75">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -1903,7 +2003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="12.75">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -1926,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.75">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -1949,7 +2049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.75">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -1972,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.75">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -1995,7 +2095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.75">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -2018,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.75">
       <c r="A39" s="11">
         <v>36</v>
       </c>
@@ -2041,7 +2141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.75">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -2064,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.75">
       <c r="A41" s="11">
         <v>38</v>
       </c>
@@ -2087,7 +2187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.75">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -2110,7 +2210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.75">
       <c r="A43" s="11">
         <v>40</v>
       </c>
@@ -2133,7 +2233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="12.75">
       <c r="A44" s="11">
         <v>41</v>
       </c>
@@ -2156,7 +2256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.75">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -2179,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.75">
       <c r="A46" s="11">
         <v>43</v>
       </c>
@@ -2202,7 +2302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.75">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -2225,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="12.75">
       <c r="A48" s="11">
         <v>45</v>
       </c>
@@ -2248,7 +2348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="12.75">
       <c r="A49" s="11">
         <v>46</v>
       </c>
@@ -2271,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="12.75">
       <c r="A50" s="11">
         <v>47</v>
       </c>
@@ -2294,7 +2394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="12.75">
       <c r="A51" s="11">
         <v>48</v>
       </c>
@@ -2317,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="12.75">
       <c r="A52" s="11">
         <v>49</v>
       </c>
@@ -2340,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="12.75">
       <c r="A53" s="11">
         <v>50</v>
       </c>
@@ -2363,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="12.75">
       <c r="A54" s="11">
         <v>51</v>
       </c>
@@ -2386,7 +2486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="12.75">
       <c r="A55" s="11">
         <v>52</v>
       </c>
@@ -2409,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="12.75">
       <c r="A56" s="11">
         <v>53</v>
       </c>
@@ -2432,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="12.75">
       <c r="A57" s="11">
         <v>54</v>
       </c>
@@ -2455,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="12.75">
       <c r="A58" s="11">
         <v>55</v>
       </c>
@@ -2478,7 +2578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="12.75">
       <c r="A59" s="11">
         <v>56</v>
       </c>
@@ -2501,7 +2601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="12.75">
       <c r="A60" s="11">
         <v>57</v>
       </c>
@@ -2524,7 +2624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="12.75">
       <c r="A61" s="11">
         <v>58</v>
       </c>
@@ -2547,7 +2647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="12.75">
       <c r="A62" s="11">
         <v>59</v>
       </c>
@@ -2570,7 +2670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="12.75">
       <c r="A63" s="11">
         <v>60</v>
       </c>
@@ -2593,7 +2693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="12.75">
       <c r="A64" s="11">
         <v>61</v>
       </c>
@@ -2610,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="12.75">
       <c r="A65" s="11">
         <v>62</v>
       </c>
@@ -2627,7 +2727,7 @@
         <v>182</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="E65" s="13">
         <v>0</v>
@@ -2639,30 +2739,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="12.75">
       <c r="A66" s="11">
         <v>63</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D66" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="E66" s="13">
         <v>0</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="12.75">
       <c r="A67" s="11">
         <v>64</v>
       </c>
@@ -2673,7 +2773,7 @@
         <v>187</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -2685,338 +2785,361 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="12.75">
       <c r="A68" s="11">
         <v>65</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D68" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="E68" s="13">
         <v>0</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="12.75">
       <c r="A69" s="11">
         <v>66</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="E69" s="13">
         <v>0</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="12.75">
       <c r="A70" s="11">
         <v>67</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="D70" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>197</v>
-      </c>
       <c r="E70" s="13">
         <v>0</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="12.75">
       <c r="A71" s="11">
         <v>68</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="D71" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="E71" s="13">
         <v>0</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="12.75">
       <c r="A72" s="11">
         <v>69</v>
       </c>
       <c r="B72" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="D72" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="E72" s="13">
         <v>0</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="12.75">
       <c r="A73" s="11">
         <v>70</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="E73" s="13">
         <v>0</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="12.75">
       <c r="A74" s="11">
         <v>71</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="D74" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="E74" s="13">
         <v>0</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="12.75">
       <c r="A75" s="11">
         <v>72</v>
       </c>
       <c r="B75" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="D75" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="E75" s="13">
         <v>0</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="12.75">
       <c r="A76" s="11">
         <v>73</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="D76" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>215</v>
-      </c>
       <c r="E76" s="13">
         <v>0</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="12.75">
       <c r="A77" s="11">
         <v>74</v>
       </c>
       <c r="B77" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="D77" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>218</v>
-      </c>
       <c r="E77" s="13">
         <v>0</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="12.75">
       <c r="A78" s="11">
         <v>75</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="D78" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D78" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="E78" s="13">
         <v>0</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="12.75">
       <c r="A79" s="11">
         <v>76</v>
       </c>
       <c r="B79" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="D79" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D79" s="12" t="s">
-        <v>224</v>
-      </c>
       <c r="E79" s="13">
         <v>0</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="12.75">
       <c r="A80" s="11">
         <v>77</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="D80" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D80" s="12" t="s">
-        <v>227</v>
-      </c>
       <c r="E80" s="13">
         <v>0</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="12.75">
       <c r="A81" s="11">
         <v>78</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="D81" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.75">
+      <c r="A82" s="11">
+        <v>79</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E81" s="13">
-        <v>0</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9" t="s">
+      <c r="C82" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="D82" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="13">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12.75">
+      <c r="A83" s="6"/>
+      <c r="B83" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3024,6 +3147,6 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="8" orientation="landscape"/>
+  <pageSetup orientation="landscape" paperSize="8"/>
 </worksheet>
 </file>